--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Smith.Spring.021721.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Smith.Spring.021721.xlsx_with_dialog_acts.xlsx
@@ -1459,12 +1459,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1497,12 +1497,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1573,12 +1573,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1649,12 +1649,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1877,12 +1877,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1991,12 +1991,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2033,12 +2033,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2223,12 +2223,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2337,12 +2337,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2413,12 +2413,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2565,12 +2565,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2641,12 +2641,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3329,12 +3329,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3367,12 +3367,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3595,12 +3595,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3633,12 +3633,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3865,12 +3865,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3903,12 +3903,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4055,12 +4055,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4401,12 +4401,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5009,12 +5009,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5469,12 +5469,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5773,12 +5773,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6305,12 +6305,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6381,12 +6381,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6917,12 +6917,12 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7719,12 +7719,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7757,12 +7757,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8677,12 +8677,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8829,12 +8829,12 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9019,12 +9019,12 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9209,12 +9209,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9445,12 +9445,12 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9483,12 +9483,12 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9559,12 +9559,12 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9787,12 +9787,12 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9939,12 +9939,12 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10057,12 +10057,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10171,12 +10171,12 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10361,12 +10361,12 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10703,12 +10703,12 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10817,12 +10817,12 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10855,12 +10855,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10893,12 +10893,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11159,12 +11159,12 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11277,12 +11277,12 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11315,12 +11315,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12075,12 +12075,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12341,12 +12341,12 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12725,12 +12725,12 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12801,12 +12801,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12953,12 +12953,12 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13067,12 +13067,12 @@
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13219,12 +13219,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13523,12 +13523,12 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13641,12 +13641,12 @@
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13907,12 +13907,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13945,12 +13945,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14641,12 +14641,12 @@
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15291,12 +15291,12 @@
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15447,12 +15447,12 @@
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16249,12 +16249,12 @@
       <c r="H414" t="inlineStr"/>
       <c r="I414" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17055,12 +17055,12 @@
       <c r="H435" t="inlineStr"/>
       <c r="I435" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17325,12 +17325,12 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17515,12 +17515,12 @@
       <c r="H447" t="inlineStr"/>
       <c r="I447" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17553,12 +17553,12 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17633,12 +17633,12 @@
       <c r="H450" t="inlineStr"/>
       <c r="I450" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17785,12 +17785,12 @@
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18017,12 +18017,12 @@
       <c r="H460" t="inlineStr"/>
       <c r="I460" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18361,12 +18361,12 @@
       <c r="H469" t="inlineStr"/>
       <c r="I469" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18399,12 +18399,12 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18441,12 +18441,12 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18781,12 +18781,12 @@
       <c r="H480" t="inlineStr"/>
       <c r="I480" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19055,12 +19055,12 @@
       <c r="H487" t="inlineStr"/>
       <c r="I487" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19169,12 +19169,12 @@
       <c r="H490" t="inlineStr"/>
       <c r="I490" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19553,12 +19553,12 @@
       <c r="H500" t="inlineStr"/>
       <c r="I500" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19667,12 +19667,12 @@
       <c r="H503" t="inlineStr"/>
       <c r="I503" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19705,12 +19705,12 @@
       <c r="H504" t="inlineStr"/>
       <c r="I504" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19781,12 +19781,12 @@
       <c r="H506" t="inlineStr"/>
       <c r="I506" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20853,12 +20853,12 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20891,12 +20891,12 @@
       <c r="H535" t="inlineStr"/>
       <c r="I535" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21193,12 +21193,12 @@
       <c r="H543" t="inlineStr"/>
       <c r="I543" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -21539,12 +21539,12 @@
       <c r="H552" t="inlineStr"/>
       <c r="I552" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
